--- a/resources/korrika1.xlsx
+++ b/resources/korrika1.xlsx
@@ -3,24 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hobetuz\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="4140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="osteguna 4 Apirilak" sheetId="2" r:id="rId2"/>
+    <sheet name="osteguna 11 Apirilak" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="269">
   <si>
     <r>
       <rPr>
@@ -2697,7 +2694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2724,6 +2721,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3081,70 +3084,70 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3">
         <v>0.2583333333333</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="3">
         <v>0.29861111111109001</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3769,10 +3772,10 @@
       <c r="F20" s="3">
         <v>0.97847222222217001</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="2" t="s">
         <v>116</v>
       </c>
@@ -3835,10 +3838,10 @@
       <c r="N21" s="3">
         <v>0.10138888888878</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="P21" s="7"/>
+      <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -3873,10 +3876,10 @@
       <c r="L22" s="3">
         <v>0.49027777777761</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="2" t="s">
         <v>134</v>
       </c>
@@ -4402,14 +4405,14 @@
       <c r="C34" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="3">
         <v>0.44861111111093999</v>
       </c>
@@ -4442,14 +4445,14 @@
         <v>0.59305555555554001</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="3">
         <v>0.47916666666656998</v>
       </c>
@@ -4484,14 +4487,14 @@
       <c r="C36" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="3">
         <v>0.54166666666671004</v>
       </c>
@@ -4501,10 +4504,10 @@
       <c r="J36" s="3">
         <v>0.79722222222225003</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="L36" s="7"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="2" t="s">
         <v>233</v>
       </c>
@@ -4524,14 +4527,14 @@
       <c r="C37" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="3">
         <v>0.56319444444434996</v>
       </c>
@@ -4566,14 +4569,14 @@
       <c r="C38" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="3">
         <v>0.61041666666654004</v>
       </c>
@@ -4608,14 +4611,14 @@
       <c r="C39" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="3">
         <v>0.63194444444444997</v>
       </c>
@@ -4650,14 +4653,14 @@
       <c r="C40" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7" t="s">
+      <c r="E40" s="10"/>
+      <c r="F40" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="3">
         <v>0.66041666666649002</v>
       </c>
@@ -4692,14 +4695,14 @@
       <c r="C41" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7" t="s">
+      <c r="E41" s="10"/>
+      <c r="F41" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="3">
         <v>0.70486111111091998</v>
       </c>
@@ -4726,11 +4729,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
@@ -4741,25 +4758,11 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
   <drawing r:id="rId1"/>
@@ -4770,8 +4773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4781,16 +4784,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -4901,4 +4904,227 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.4722222221999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.1527777777639999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8.1944444444189996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.10416666666653999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.13541666666661001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.16944444444444001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.21458333333331001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.23055555555543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.28194444444425998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.29791666666665001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.32638888888869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.37708333333334998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.41041666666646998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.44444444444429998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.49027777777761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.67986111111108005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.69861111111095997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.72777777777771002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.74236111111095004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.81597222222212995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.84166666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.91944444444450002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.92430555555558003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>